--- a/Week 16/Methods/Points/ScoredSubBFiltered.xlsx
+++ b/Week 16/Methods/Points/ScoredSubBFiltered.xlsx
@@ -454,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
